--- a/data/trans_bre/P3A_R1-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-15.74506729585953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-9.743948588729937</v>
+        <v>-9.743948588729939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6294821998201943</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.42723215988746</v>
+        <v>-15.31614838884937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.92674160815206</v>
+        <v>-15.975504361034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.00964782245571</v>
+        <v>-19.07045935052501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.75977268955458</v>
+        <v>-14.79215662855128</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7340913584593307</v>
+        <v>-0.7255849042690632</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6096158564353641</v>
+        <v>-0.6185370803062732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.594396414801626</v>
+        <v>-0.5966961097042889</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6177855691214869</v>
+        <v>-0.6360112382530846</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.631651315286119</v>
+        <v>-8.149090434382106</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.02016389127771</v>
+        <v>-9.06589580616115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-12.27040031386712</v>
+        <v>-12.48494439574555</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-5.451423207207163</v>
+        <v>-6.01445503993797</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.5153523811305526</v>
+        <v>-0.4954276412722922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.4038359293751369</v>
+        <v>-0.4064257428200889</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.4400433988290888</v>
+        <v>-0.4376859763000503</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.330193795247415</v>
+        <v>-0.3483369138317604</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.22863283565803</v>
+        <v>-12.24936759682933</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.01821709885266</v>
+        <v>-15.92378357173627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-16.60483882264084</v>
+        <v>-16.73158910850699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-14.96881099038689</v>
+        <v>-14.88710690872861</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5320778204005404</v>
+        <v>-0.5287964937335486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.557045229142401</v>
+        <v>-0.5582892674124146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4851249957248216</v>
+        <v>-0.4872595334751173</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4500545602291423</v>
+        <v>-0.445305499745101</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-5.740546172572805</v>
+        <v>-5.896592805041296</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-8.958217346855143</v>
+        <v>-8.312562265030673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-8.615991800638916</v>
+        <v>-8.864996939058711</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-7.227529584817676</v>
+        <v>-7.047231556233546</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2972977978697858</v>
+        <v>-0.2965472872988978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3612060457351027</v>
+        <v>-0.3390068084128739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2895922778941339</v>
+        <v>-0.2993283643643629</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.259560482696006</v>
+        <v>-0.2497689156841029</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-11.90390263753402</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.684507640961106</v>
+        <v>-5.684507640961101</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3384914391989348</v>
@@ -849,7 +849,7 @@
         <v>-0.3316059536946702</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1822442203895908</v>
+        <v>-0.1822442203895906</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.50276036674815</v>
+        <v>-10.25960878403231</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.9885345674369</v>
+        <v>-15.99870244603959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.87020646323111</v>
+        <v>-16.29436970950592</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.499254149735972</v>
+        <v>-9.589316744840728</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4606655513615948</v>
+        <v>-0.4455240323888192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5055789466073604</v>
+        <v>-0.5053291252537033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4407028382150206</v>
+        <v>-0.4302586325363146</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2805079025349019</v>
+        <v>-0.2860959222192</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.041628688606445</v>
+        <v>-3.706080972040142</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-8.0314373714289</v>
+        <v>-7.599421953269389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.430083955985357</v>
+        <v>-6.980818992181023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.145361738188502</v>
+        <v>-1.929960493671286</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2026011762730051</v>
+        <v>-0.1912830276171908</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2955214433858147</v>
+        <v>-0.276049508564771</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.2200643368815789</v>
+        <v>-0.2067775972276844</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.07477064564596118</v>
+        <v>-0.06307807186240794</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.234582010691367</v>
+        <v>-9.184327625796646</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-20.37548596160822</v>
+        <v>-19.91973148439276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-18.76209028554641</v>
+        <v>-18.65175934594719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.043409702027484</v>
+        <v>-7.916083618661873</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3628929966677808</v>
+        <v>-0.3697990695231154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5596099024506072</v>
+        <v>-0.5550791551849875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5267931043298896</v>
+        <v>-0.5279843332441639</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2405487509757098</v>
+        <v>-0.2384000828722369</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.722958443044097</v>
+        <v>2.067590829328556</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.44422016732082</v>
+        <v>-7.877820605783701</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-6.961247275061701</v>
+        <v>-6.878697863894449</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1817943665595101</v>
+        <v>0.3656157877986184</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1297265813852811</v>
+        <v>0.1076055285837532</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2810384396183901</v>
+        <v>-0.2668039954535172</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.215187198094668</v>
+        <v>-0.238638280048847</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0007905782263131222</v>
+        <v>0.01430733892548136</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-13.72233971167753</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-7.812509092082714</v>
+        <v>-7.812509092082706</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4302689681771369</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4241595101142401</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2667105295563518</v>
+        <v>-0.2667105295563515</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.70966205461565</v>
+        <v>-10.92314114035365</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.58338210293027</v>
+        <v>-14.75895338259268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.85908450420873</v>
+        <v>-15.86290996495306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.854375536485275</v>
+        <v>-9.978052433761295</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4886732252512994</v>
+        <v>-0.4920302665106638</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5109677011665096</v>
+        <v>-0.5116365169527576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4746318111737903</v>
+        <v>-0.4739274498513061</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3227590189766568</v>
+        <v>-0.3239276380638252</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-7.072047622769766</v>
+        <v>-7.17719664126923</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-10.4830553229573</v>
+        <v>-10.6527430763825</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-11.62072953052142</v>
+        <v>-11.67683357768514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.708988061909373</v>
+        <v>-5.881195808717327</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3544670329101376</v>
+        <v>-0.3582893527702488</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4011664382670365</v>
+        <v>-0.399589731226467</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.3734142102902339</v>
+        <v>-0.3747967233009287</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2022340104908656</v>
+        <v>-0.2087731934845766</v>
       </c>
     </row>
     <row r="19">
